--- a/Documentos/Tabela de itens.xlsx
+++ b/Documentos/Tabela de itens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\GitHub\Esquadrao-acai\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69114FA-690D-4852-B75C-2AB562C5A899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BCC915-9D41-4945-9F03-A35E44F61F86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" tabRatio="552" xr2:uid="{23B283D7-E07F-4C88-8D90-CE893C316524}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,8 +296,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,23 +321,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,6 +388,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -413,9 +425,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -432,15 +441,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,14 +465,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97514FAA-7F8C-47EB-92E2-B75D13FD31C4}" name="Tabela3" displayName="Tabela3" ref="A3:F8" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97514FAA-7F8C-47EB-92E2-B75D13FD31C4}" name="Tabela3" displayName="Tabela3" ref="A3:F8" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A3:F8" xr:uid="{963A0E6B-9DA6-457E-BB9A-63706AE4A83F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{67998C72-6897-4F84-9A97-DE694EA7BC84}" name="Nome da arma"/>
     <tableColumn id="2" xr3:uid="{86DE6131-7EB4-4EF4-A91F-CB6369978310}" name="Dano base"/>
     <tableColumn id="3" xr3:uid="{301CC777-CA5B-4BFC-BD51-18181503252B}" name="Tempo de ataque"/>
     <tableColumn id="4" xr3:uid="{3DD65865-9D4A-4F49-9508-65E879110D20}" name="Capacidade de munição"/>
-    <tableColumn id="5" xr3:uid="{00C08DB1-E84F-4579-AD68-B606A52CAB81}" name="Dano por minuto" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00C08DB1-E84F-4579-AD68-B606A52CAB81}" name="Dano por minuto" dataDxfId="13">
       <calculatedColumnFormula>Tabela3[[#This Row],[DPS]]*60</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{37D54CC3-31BC-461D-8EB7-B73D0688C0E4}" name="DPS">
@@ -510,14 +519,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{87ADBF28-248D-4677-B115-0DE49AAFD5CE}" name="Tabela39" displayName="Tabela39" ref="A25:F29" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{87ADBF28-248D-4677-B115-0DE49AAFD5CE}" name="Tabela39" displayName="Tabela39" ref="A25:F29" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A25:F29" xr:uid="{F7E38A9F-6D04-4FA0-A8BF-1280702A3565}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{65102FB6-ECB2-4A40-BFDF-F51C8B36994B}" name="Nome da arma"/>
     <tableColumn id="2" xr3:uid="{16542773-7B97-4401-871A-1AD61DB23BC4}" name="Dano base"/>
     <tableColumn id="3" xr3:uid="{E28F2B80-2359-4704-93BA-27E862613A43}" name="Tempo de ataque"/>
     <tableColumn id="4" xr3:uid="{137F05D7-6242-4EFE-96AA-EC2C6D122045}" name="Capacidade de munição"/>
-    <tableColumn id="5" xr3:uid="{C4FAA1A3-B3B5-478D-B7DF-47C8A97032F2}" name="Dano por minuto" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{C4FAA1A3-B3B5-478D-B7DF-47C8A97032F2}" name="Dano por minuto" dataDxfId="8">
       <calculatedColumnFormula>Tabela39[[#This Row],[DPS]]*60</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{22F95C4D-8BFC-41B3-B26D-631D14108EA0}" name="DPS">
@@ -529,14 +538,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F64D0D55-1F38-453D-84E1-169B7AA18DDA}" name="Tabela13" displayName="Tabela13" ref="A32:E35" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F64D0D55-1F38-453D-84E1-169B7AA18DDA}" name="Tabela13" displayName="Tabela13" ref="A32:E35" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A32:E35" xr:uid="{31484E7C-A37C-445E-A081-C5A6D6D177E8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCBAFE2A-2C88-4958-9B03-6AC64FA26C55}" name="Tipo de barreia"/>
     <tableColumn id="2" xr3:uid="{9C5A4009-51DE-45F4-B7CF-48F998CEE489}" name="Madeira"/>
     <tableColumn id="3" xr3:uid="{8D0DC845-8613-4B86-B1D3-0214F77C3D31}" name="Metal"/>
     <tableColumn id="4" xr3:uid="{B3B7E496-E087-4A3E-85D0-9EF24694010F}" name="Corda"/>
-    <tableColumn id="5" xr3:uid="{7E693109-DC78-4300-9672-17B9B98EE117}" name="Quantidade de materiais" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{7E693109-DC78-4300-9672-17B9B98EE117}" name="Quantidade de materiais" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Madeira]:[Corda]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -897,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A660164-C151-4D02-ACF4-8F4EFA2B1D36}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -912,45 +921,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1050,32 +1059,32 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1152,36 +1161,36 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1282,32 +1291,32 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1388,29 +1397,29 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1469,32 +1478,32 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1556,29 +1565,29 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1640,38 +1649,38 @@
       <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="8">
         <f>SUM(Tabela1316[[#This Row],[Especial]:[Corda]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1685,6 +1694,7 @@
       <c r="C52">
         <v>0.5</v>
       </c>
+      <c r="D52" s="15"/>
       <c r="E52">
         <f>Tabela3917[[#This Row],[Tempo de efeito/ dano por segundo]]*60</f>
         <v>1800</v>
